--- a/server/src/main/resources/TestUpdateAccessionList2016.xlsx
+++ b/server/src/main/resources/TestUpdateAccessionList2016.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="568">
   <si>
     <t xml:space="preserve">2016 Accession List: Steve's Design</t>
   </si>
@@ -86,7 +87,7 @@
     <t xml:space="preserve">Alternanthera</t>
   </si>
   <si>
-    <t xml:space="preserve">Experimental</t>
+    <t xml:space="preserve">iWasUpdated</t>
   </si>
   <si>
     <t xml:space="preserve">PA</t>
@@ -347,9 +348,6 @@
   </si>
   <si>
     <t xml:space="preserve">Oranmental Pepper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sedona Sun</t>
   </si>
   <si>
     <t xml:space="preserve">2N</t>
@@ -3558,23 +3556,24 @@
   <dimension ref="A1:Z454"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G364" activeCellId="0" sqref="G364"/>
+      <selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.13917525773196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7731958762887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.639175257732"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2319587628866"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.77319587628866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1855670103093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="73.9175257731959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3659793814433"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0463917525773"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3659793814433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="73.7835051546392"/>
     <col collapsed="false" hidden="false" max="18" min="9" style="0" width="9.13917525773196"/>
-    <col collapsed="false" hidden="false" max="26" min="19" style="0" width="7.91237113402062"/>
+    <col collapsed="false" hidden="false" max="26" min="19" style="0" width="7.77319587628866"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.59278350515464"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5006,8 +5005,8 @@
       <c r="B36" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>79</v>
+      <c r="C36" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>15</v>
@@ -5017,7 +5016,7 @@
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="38"/>
       <c r="I36" s="5"/>
@@ -5044,10 +5043,10 @@
         <v>16065</v>
       </c>
       <c r="B37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>82</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>20</v>
@@ -5084,10 +5083,10 @@
         <v>16066</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>20</v>
@@ -5124,10 +5123,10 @@
         <v>16070</v>
       </c>
       <c r="B39" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>84</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>85</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>20</v>
@@ -5164,10 +5163,10 @@
         <v>16071</v>
       </c>
       <c r="B40" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>86</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>87</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>20</v>
@@ -5204,10 +5203,10 @@
         <v>16081</v>
       </c>
       <c r="B41" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>50</v>
@@ -5220,7 +5219,7 @@
         <v>13</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5246,10 +5245,10 @@
         <v>16082</v>
       </c>
       <c r="B42" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>91</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>92</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>20</v>
@@ -5264,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5290,10 +5289,10 @@
         <v>16083</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>20</v>
@@ -5308,7 +5307,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -5334,10 +5333,10 @@
         <v>16084</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>20</v>
@@ -5374,10 +5373,10 @@
         <v>16093</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>96</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>20</v>
@@ -5414,10 +5413,10 @@
         <v>16094</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>20</v>
@@ -5454,10 +5453,10 @@
         <v>16101</v>
       </c>
       <c r="B47" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>99</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>20</v>
@@ -5494,10 +5493,10 @@
         <v>16102</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>15</v>
@@ -5507,7 +5506,7 @@
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="5"/>
@@ -5534,10 +5533,10 @@
         <v>16112</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="36" t="s">
         <v>103</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>104</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>20</v>
@@ -5574,10 +5573,10 @@
         <v>16113</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>20</v>
@@ -5614,10 +5613,10 @@
         <v>16114</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>15</v>
@@ -5627,7 +5626,7 @@
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H51" s="38"/>
       <c r="I51" s="5"/>
@@ -5654,10 +5653,10 @@
         <v>16115</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>15</v>
@@ -5667,10 +5666,10 @@
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -5696,10 +5695,10 @@
         <v>16116</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>15</v>
@@ -5736,10 +5735,10 @@
         <v>16117</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>15</v>
@@ -5749,7 +5748,7 @@
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="5"/>
@@ -5776,10 +5775,10 @@
         <v>16118</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>15</v>
@@ -5816,23 +5815,23 @@
         <v>16122</v>
       </c>
       <c r="B56" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="D56" s="37" t="s">
         <v>113</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>114</v>
       </c>
       <c r="E56" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="44"/>
       <c r="G56" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H56" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5858,20 +5857,20 @@
         <v>16123</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="5"/>
@@ -5898,20 +5897,20 @@
         <v>16124</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="5"/>
@@ -5941,17 +5940,17 @@
         <v>61</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H59" s="38"/>
       <c r="I59" s="5"/>
@@ -5981,17 +5980,17 @@
         <v>61</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H60" s="38"/>
       <c r="I60" s="5"/>
@@ -6021,17 +6020,17 @@
         <v>61</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="5"/>
@@ -6058,13 +6057,13 @@
         <v>16128</v>
       </c>
       <c r="B62" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>123</v>
-      </c>
       <c r="D62" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="37" t="s">
         <v>16</v>
@@ -6074,7 +6073,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6100,25 +6099,25 @@
         <v>16129</v>
       </c>
       <c r="B63" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>126</v>
-      </c>
       <c r="D63" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -6144,13 +6143,13 @@
         <v>16130</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="37" t="s">
         <v>16</v>
@@ -6184,13 +6183,13 @@
         <v>16131</v>
       </c>
       <c r="B65" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="36" t="s">
-        <v>131</v>
-      </c>
       <c r="D65" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="37" t="s">
         <v>16</v>
@@ -6224,13 +6223,13 @@
         <v>16132</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="37" t="s">
         <v>16</v>
@@ -6264,23 +6263,23 @@
         <v>16133</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H67" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -6306,20 +6305,20 @@
         <v>16134</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H68" s="38"/>
       <c r="I68" s="5"/>
@@ -6349,10 +6348,10 @@
         <v>21</v>
       </c>
       <c r="C69" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="37" t="s">
         <v>136</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>137</v>
       </c>
       <c r="E69" s="37" t="s">
         <v>16</v>
@@ -6391,10 +6390,10 @@
         <v>21</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E70" s="37" t="s">
         <v>16</v>
@@ -6433,10 +6432,10 @@
         <v>21</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E71" s="37" t="s">
         <v>16</v>
@@ -6475,10 +6474,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E72" s="37" t="s">
         <v>16</v>
@@ -6517,10 +6516,10 @@
         <v>61</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E73" s="37" t="s">
         <v>16</v>
@@ -6529,7 +6528,7 @@
         <v>65</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>66</v>
@@ -6561,10 +6560,10 @@
         <v>61</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="37" t="s">
         <v>16</v>
@@ -6601,10 +6600,10 @@
         <v>61</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>16</v>
@@ -6641,10 +6640,10 @@
         <v>61</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>16</v>
@@ -6681,10 +6680,10 @@
         <v>61</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>16</v>
@@ -6693,7 +6692,7 @@
         <v>65</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>66</v>
@@ -6722,20 +6721,20 @@
         <v>16144</v>
       </c>
       <c r="B78" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="D78" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H78" s="38"/>
       <c r="I78" s="5"/>
@@ -6762,20 +6761,20 @@
         <v>16145</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E79" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H79" s="38"/>
       <c r="I79" s="5"/>
@@ -6802,13 +6801,13 @@
         <v>16146</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>16</v>
@@ -6842,23 +6841,23 @@
         <v>16147</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E81" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -6884,20 +6883,20 @@
         <v>16148</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="5"/>
@@ -6924,20 +6923,20 @@
         <v>16149</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E83" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H83" s="38"/>
       <c r="I83" s="5"/>
@@ -6964,20 +6963,20 @@
         <v>16150</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H84" s="38"/>
       <c r="I84" s="5"/>
@@ -7004,25 +7003,25 @@
         <v>16151</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G85" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -7048,20 +7047,20 @@
         <v>16152</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E86" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H86" s="38"/>
       <c r="I86" s="5"/>
@@ -7088,13 +7087,13 @@
         <v>16153</v>
       </c>
       <c r="B87" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="34" t="s">
-        <v>159</v>
-      </c>
       <c r="D87" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E87" s="37" t="s">
         <v>16</v>
@@ -7104,7 +7103,7 @@
         <v>9</v>
       </c>
       <c r="H87" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7130,23 +7129,23 @@
         <v>16154</v>
       </c>
       <c r="B88" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="D88" s="40" t="s">
         <v>162</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>163</v>
       </c>
       <c r="E88" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H88" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7172,23 +7171,23 @@
         <v>16155</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E89" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -7214,23 +7213,23 @@
         <v>16156</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E90" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H90" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -7256,23 +7255,23 @@
         <v>16157</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E91" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H91" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -7298,25 +7297,25 @@
         <v>16158</v>
       </c>
       <c r="B92" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="43" t="s">
-        <v>169</v>
-      </c>
       <c r="D92" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E92" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G92" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H92" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -7342,23 +7341,23 @@
         <v>16159</v>
       </c>
       <c r="B93" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="34" t="s">
-        <v>172</v>
-      </c>
       <c r="D93" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E93" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -7384,23 +7383,23 @@
         <v>16160</v>
       </c>
       <c r="B94" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="D94" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>176</v>
       </c>
       <c r="E94" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G94" s="37"/>
       <c r="H94" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -7426,23 +7425,23 @@
         <v>16161</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E95" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G95" s="40"/>
       <c r="H95" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -7468,23 +7467,23 @@
         <v>16162</v>
       </c>
       <c r="B96" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -7510,13 +7509,13 @@
         <v>16163</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>16</v>
@@ -7525,10 +7524,10 @@
         <v>65</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H97" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -7554,13 +7553,13 @@
         <v>16164</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E98" s="37" t="s">
         <v>16</v>
@@ -7569,7 +7568,7 @@
         <v>65</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H98" s="42" t="s">
         <v>66</v>
@@ -7598,13 +7597,13 @@
         <v>16165</v>
       </c>
       <c r="B99" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E99" s="37" t="s">
         <v>16</v>
@@ -7613,7 +7612,7 @@
         <v>65</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H99" s="42" t="s">
         <v>66</v>
@@ -7642,13 +7641,13 @@
         <v>16166</v>
       </c>
       <c r="B100" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E100" s="37" t="s">
         <v>16</v>
@@ -7686,13 +7685,13 @@
         <v>16167</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E101" s="37" t="s">
         <v>16</v>
@@ -7702,7 +7701,7 @@
         <v>9</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -7728,13 +7727,13 @@
         <v>16168</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E102" s="37" t="s">
         <v>16</v>
@@ -7772,13 +7771,13 @@
         <v>16169</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>16</v>
@@ -7812,13 +7811,13 @@
         <v>16170</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E104" s="37" t="s">
         <v>16</v>
@@ -7852,13 +7851,13 @@
         <v>16171</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E105" s="37" t="s">
         <v>16</v>
@@ -7892,13 +7891,13 @@
         <v>16172</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E106" s="37" t="s">
         <v>16</v>
@@ -7936,13 +7935,13 @@
         <v>16173</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E107" s="37" t="s">
         <v>16</v>
@@ -7976,13 +7975,13 @@
         <v>16174</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E108" s="37" t="s">
         <v>16</v>
@@ -7992,7 +7991,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -8018,13 +8017,13 @@
         <v>16175</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>16</v>
@@ -8062,13 +8061,13 @@
         <v>16176</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E110" s="37" t="s">
         <v>16</v>
@@ -8102,23 +8101,23 @@
         <v>16177</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E111" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H111" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -8144,20 +8143,20 @@
         <v>16178</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F112" s="36"/>
       <c r="G112" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H112" s="38"/>
       <c r="I112" s="5"/>
@@ -8184,20 +8183,20 @@
         <v>16179</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E113" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H113" s="42"/>
       <c r="I113" s="5"/>
@@ -8224,25 +8223,25 @@
         <v>16180</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -8268,20 +8267,20 @@
         <v>16181</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E115" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="36"/>
       <c r="G115" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H115" s="38"/>
       <c r="I115" s="5"/>
@@ -8308,25 +8307,25 @@
         <v>16182</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E116" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H116" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
@@ -8352,10 +8351,10 @@
         <v>16187</v>
       </c>
       <c r="B117" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="36" t="s">
         <v>204</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>205</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>20</v>
@@ -8392,13 +8391,13 @@
         <v>16192</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="D118" s="37" t="s">
-        <v>207</v>
       </c>
       <c r="E118" s="37" t="s">
         <v>16</v>
@@ -8432,13 +8431,13 @@
         <v>16198</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C119" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="37" t="s">
         <v>208</v>
-      </c>
-      <c r="D119" s="37" t="s">
-        <v>209</v>
       </c>
       <c r="E119" s="37" t="s">
         <v>16</v>
@@ -8450,7 +8449,7 @@
         <v>6</v>
       </c>
       <c r="H119" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -8476,13 +8475,13 @@
         <v>16199</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E120" s="37" t="s">
         <v>16</v>
@@ -8520,13 +8519,13 @@
         <v>16200</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D121" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E121" s="37" t="s">
         <v>16</v>
@@ -8564,23 +8563,23 @@
         <v>16201</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C122" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D122" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E122" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="36"/>
       <c r="G122" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H122" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -8606,20 +8605,20 @@
         <v>16202</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D123" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E123" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="36"/>
       <c r="G123" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H123" s="38"/>
       <c r="I123" s="5"/>
@@ -8646,20 +8645,20 @@
         <v>16203</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D124" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E124" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="36"/>
       <c r="G124" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H124" s="38"/>
       <c r="I124" s="5"/>
@@ -8686,25 +8685,25 @@
         <v>16204</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D125" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E125" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H125" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -8730,23 +8729,23 @@
         <v>16205</v>
       </c>
       <c r="B126" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="D126" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D126" s="37" t="s">
+      <c r="E126" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E126" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37" t="n">
         <v>9</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -8772,16 +8771,16 @@
         <v>16206</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D127" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E127" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37" t="n">
@@ -8812,16 +8811,16 @@
         <v>16207</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D128" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="E128" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="F128" s="40"/>
       <c r="G128" s="37" t="n">
@@ -8852,23 +8851,23 @@
         <v>16208</v>
       </c>
       <c r="B129" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C129" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="C129" s="50" t="s">
-        <v>226</v>
-      </c>
       <c r="D129" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="E129" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H129" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -8894,23 +8893,23 @@
         <v>16209</v>
       </c>
       <c r="B130" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="C130" s="50" t="s">
-        <v>229</v>
-      </c>
       <c r="D130" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="E130" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="F130" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G130" s="40"/>
       <c r="H130" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
@@ -8936,16 +8935,16 @@
         <v>16210</v>
       </c>
       <c r="B131" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D131" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E131" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F131" s="36"/>
       <c r="G131" s="37" t="n">
@@ -8976,16 +8975,16 @@
         <v>16211</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C132" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D132" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E132" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F132" s="36"/>
       <c r="G132" s="37" t="n">
@@ -9016,20 +9015,20 @@
         <v>16212</v>
       </c>
       <c r="B133" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D133" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E133" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H133" s="38"/>
       <c r="I133" s="5"/>
@@ -9056,20 +9055,20 @@
         <v>16213</v>
       </c>
       <c r="B134" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D134" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E134" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H134" s="38"/>
       <c r="I134" s="5"/>
@@ -9096,20 +9095,20 @@
         <v>16214</v>
       </c>
       <c r="B135" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D135" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E135" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H135" s="38"/>
       <c r="I135" s="5"/>
@@ -9136,16 +9135,16 @@
         <v>16215</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D136" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E136" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="37" t="s">
@@ -9176,20 +9175,20 @@
         <v>16216</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D137" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E137" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E137" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H137" s="38"/>
       <c r="I137" s="5"/>
@@ -9216,20 +9215,20 @@
         <v>16217</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D138" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E138" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E138" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H138" s="38"/>
       <c r="I138" s="5"/>
@@ -9256,16 +9255,16 @@
         <v>16218</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D139" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E139" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E139" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="37" t="s">
@@ -9296,16 +9295,16 @@
         <v>16219</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D140" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E140" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E140" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="37" t="s">
@@ -9336,16 +9335,16 @@
         <v>16220</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D141" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E141" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E141" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="37" t="s">
@@ -9376,16 +9375,16 @@
         <v>16221</v>
       </c>
       <c r="B142" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D142" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E142" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E142" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="37" t="s">
@@ -9416,20 +9415,20 @@
         <v>16222</v>
       </c>
       <c r="B143" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D143" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E143" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E143" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H143" s="38"/>
       <c r="I143" s="5"/>
@@ -9456,20 +9455,20 @@
         <v>16223</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D144" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E144" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F144" s="36"/>
       <c r="G144" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H144" s="38"/>
       <c r="I144" s="5"/>
@@ -9496,16 +9495,16 @@
         <v>16224</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D145" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E145" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E145" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="37" t="n">
@@ -9536,16 +9535,16 @@
         <v>16225</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D146" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E146" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="E146" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="F146" s="36"/>
       <c r="G146" s="37" t="n">
@@ -9576,16 +9575,16 @@
         <v>16226</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D147" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="E147" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="40" t="n">
@@ -9616,16 +9615,16 @@
         <v>16227</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D148" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="E148" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="E148" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="40" t="n">
@@ -9656,16 +9655,16 @@
         <v>16228</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C149" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D149" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E149" s="37" t="s">
         <v>220</v>
-      </c>
-      <c r="E149" s="37" t="s">
-        <v>221</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="37" t="n">
@@ -9696,13 +9695,13 @@
         <v>16229</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D150" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E150" s="37" t="s">
         <v>16</v>
@@ -9712,7 +9711,7 @@
         <v>6</v>
       </c>
       <c r="H150" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -9738,23 +9737,23 @@
         <v>16230</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D151" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E151" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F151" s="36"/>
       <c r="G151" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H151" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
@@ -9780,13 +9779,13 @@
         <v>16231</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D152" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E152" s="37" t="s">
         <v>16</v>
@@ -9796,7 +9795,7 @@
         <v>5</v>
       </c>
       <c r="H152" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -9822,13 +9821,13 @@
         <v>16232</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D153" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E153" s="37" t="s">
         <v>16</v>
@@ -9838,7 +9837,7 @@
         <v>5</v>
       </c>
       <c r="H153" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -9864,13 +9863,13 @@
         <v>16233</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D154" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E154" s="37" t="s">
         <v>16</v>
@@ -9880,7 +9879,7 @@
         <v>5</v>
       </c>
       <c r="H154" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -9906,23 +9905,23 @@
         <v>16234</v>
       </c>
       <c r="B155" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C155" s="36" t="s">
+      <c r="D155" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D155" s="37" t="s">
-        <v>258</v>
-      </c>
       <c r="E155" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F155" s="36"/>
       <c r="G155" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H155" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -9951,20 +9950,20 @@
         <v>21</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D156" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F156" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G156" s="37"/>
       <c r="H156" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -9993,20 +9992,20 @@
         <v>21</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D157" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F157" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G157" s="37"/>
       <c r="H157" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
@@ -10035,20 +10034,20 @@
         <v>21</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D158" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F158" s="53" t="s">
         <v>65</v>
       </c>
       <c r="G158" s="37"/>
       <c r="H158" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -10077,20 +10076,20 @@
         <v>21</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F159" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G159" s="37"/>
       <c r="H159" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10119,20 +10118,20 @@
         <v>21</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D160" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E160" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F160" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G160" s="37"/>
       <c r="H160" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10161,20 +10160,20 @@
         <v>21</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D161" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E161" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F161" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10203,13 +10202,13 @@
         <v>45</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E162" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F162" s="37" t="s">
         <v>65</v>
@@ -10218,7 +10217,7 @@
         <v>42</v>
       </c>
       <c r="H162" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10247,13 +10246,13 @@
         <v>45</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D163" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F163" s="36"/>
       <c r="G163" s="37" t="n">
@@ -10289,13 +10288,13 @@
         <v>45</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D164" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F164" s="36"/>
       <c r="G164" s="37" t="n">
@@ -10331,13 +10330,13 @@
         <v>45</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D165" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F165" s="36"/>
       <c r="G165" s="37" t="n">
@@ -10373,13 +10372,13 @@
         <v>45</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F166" s="36"/>
       <c r="G166" s="37" t="n">
@@ -10415,13 +10414,13 @@
         <v>45</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F167" s="36"/>
       <c r="G167" s="37" t="n">
@@ -10457,13 +10456,13 @@
         <v>45</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F168" s="36"/>
       <c r="G168" s="37" t="n">
@@ -10499,22 +10498,22 @@
         <v>61</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F169" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G169" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H169" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10543,16 +10542,16 @@
         <v>36</v>
       </c>
       <c r="C170" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D170" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D170" s="37" t="s">
-        <v>277</v>
-      </c>
       <c r="E170" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F170" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="38"/>
@@ -10583,16 +10582,16 @@
         <v>36</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F171" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G171" s="37"/>
       <c r="H171" s="38"/>
@@ -10623,16 +10622,16 @@
         <v>36</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D172" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F172" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G172" s="37"/>
       <c r="H172" s="38"/>
@@ -10663,16 +10662,16 @@
         <v>36</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F173" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G173" s="37"/>
       <c r="H173" s="38"/>
@@ -10703,16 +10702,16 @@
         <v>36</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F174" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G174" s="37"/>
       <c r="H174" s="38"/>
@@ -10743,16 +10742,16 @@
         <v>36</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F175" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G175" s="37"/>
       <c r="H175" s="38"/>
@@ -10783,20 +10782,20 @@
         <v>45</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D176" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F176" s="36"/>
       <c r="G176" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H176" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -10825,20 +10824,20 @@
         <v>45</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D177" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E177" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="40" t="n">
         <v>11</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
@@ -10867,13 +10866,13 @@
         <v>45</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D178" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E178" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F178" s="37" t="s">
         <v>65</v>
@@ -10882,7 +10881,7 @@
         <v>11</v>
       </c>
       <c r="H178" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -10908,23 +10907,23 @@
         <v>16258</v>
       </c>
       <c r="B179" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C179" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="C179" s="36" t="s">
-        <v>289</v>
-      </c>
       <c r="D179" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F179" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G179" s="37"/>
       <c r="H179" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -10950,23 +10949,23 @@
         <v>16259</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C180" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D180" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E180" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F180" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G180" s="37"/>
       <c r="H180" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -10992,16 +10991,16 @@
         <v>16260</v>
       </c>
       <c r="B181" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C181" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="C181" s="36" t="s">
-        <v>293</v>
-      </c>
       <c r="D181" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F181" s="36"/>
       <c r="G181" s="37" t="s">
@@ -11035,20 +11034,20 @@
         <v>61</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D182" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E182" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F182" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G182" s="37"/>
       <c r="H182" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -11077,20 +11076,20 @@
         <v>61</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D183" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E183" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F183" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G183" s="37"/>
       <c r="H183" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
@@ -11119,20 +11118,20 @@
         <v>61</v>
       </c>
       <c r="C184" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D184" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E184" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F184" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G184" s="37"/>
       <c r="H184" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -11158,25 +11157,25 @@
         <v>16266</v>
       </c>
       <c r="B185" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C185" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="D185" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="D185" s="37" t="s">
-        <v>299</v>
-      </c>
       <c r="E185" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F185" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G185" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H185" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -11202,22 +11201,22 @@
         <v>16267</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C186" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D186" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E186" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F186" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G186" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H186" s="38" t="s">
         <v>66</v>
@@ -11246,22 +11245,22 @@
         <v>16268</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C187" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D187" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E187" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F187" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G187" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H187" s="38" t="s">
         <v>66</v>
@@ -11290,22 +11289,22 @@
         <v>16269</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C188" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D188" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E188" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F188" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G188" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H188" s="38" t="s">
         <v>66</v>
@@ -11334,23 +11333,23 @@
         <v>16270</v>
       </c>
       <c r="B189" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C189" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="C189" s="36" t="s">
-        <v>305</v>
-      </c>
       <c r="D189" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E189" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F189" s="36"/>
       <c r="G189" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H189" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11376,16 +11375,16 @@
         <v>16271</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C190" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D190" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E190" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F190" s="36"/>
       <c r="G190" s="37" t="n">
@@ -11416,16 +11415,16 @@
         <v>16272</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C191" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D191" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E191" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F191" s="36"/>
       <c r="G191" s="37" t="n">
@@ -11456,20 +11455,20 @@
         <v>16276</v>
       </c>
       <c r="B192" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="C192" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="C192" s="36" t="s">
-        <v>310</v>
-      </c>
       <c r="D192" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E192" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F192" s="36"/>
       <c r="G192" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H192" s="38"/>
       <c r="I192" s="5"/>
@@ -11496,20 +11495,20 @@
         <v>16277</v>
       </c>
       <c r="B193" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C193" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D193" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F193" s="36"/>
       <c r="G193" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H193" s="38"/>
       <c r="I193" s="5"/>
@@ -11536,20 +11535,20 @@
         <v>16278</v>
       </c>
       <c r="B194" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C194" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D194" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E194" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F194" s="36"/>
       <c r="G194" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H194" s="38"/>
       <c r="I194" s="5"/>
@@ -11576,20 +11575,20 @@
         <v>16279</v>
       </c>
       <c r="B195" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C195" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D195" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F195" s="36"/>
       <c r="G195" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H195" s="38"/>
       <c r="I195" s="5"/>
@@ -11619,20 +11618,20 @@
         <v>18</v>
       </c>
       <c r="C196" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D196" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="D196" s="37" t="s">
-        <v>315</v>
-      </c>
       <c r="E196" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F196" s="37"/>
       <c r="G196" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H196" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -11661,17 +11660,17 @@
         <v>18</v>
       </c>
       <c r="C197" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D197" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E197" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H197" s="36"/>
       <c r="I197" s="5"/>
@@ -11701,17 +11700,17 @@
         <v>18</v>
       </c>
       <c r="C198" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D198" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F198" s="40"/>
       <c r="G198" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H198" s="34"/>
       <c r="I198" s="5"/>
@@ -11741,17 +11740,17 @@
         <v>18</v>
       </c>
       <c r="C199" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D199" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E199" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F199" s="37"/>
       <c r="G199" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H199" s="36"/>
       <c r="I199" s="5"/>
@@ -11778,25 +11777,25 @@
         <v>16284</v>
       </c>
       <c r="B200" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C200" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="C200" s="36" t="s">
+      <c r="D200" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E200" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F200" s="37" t="s">
         <v>321</v>
-      </c>
-      <c r="D200" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E200" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F200" s="37" t="s">
-        <v>322</v>
       </c>
       <c r="G200" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H200" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -11822,16 +11821,16 @@
         <v>16285</v>
       </c>
       <c r="B201" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C201" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D201" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E201" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F201" s="37" t="s">
         <v>65</v>
@@ -11840,7 +11839,7 @@
         <v>6</v>
       </c>
       <c r="H201" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
@@ -11866,23 +11865,23 @@
         <v>16286</v>
       </c>
       <c r="B202" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C202" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D202" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E202" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F202" s="36"/>
       <c r="G202" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H202" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
@@ -11908,23 +11907,23 @@
         <v>16287</v>
       </c>
       <c r="B203" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C203" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="C203" s="43" t="s">
-        <v>328</v>
-      </c>
       <c r="D203" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F203" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G203" s="37"/>
       <c r="H203" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
@@ -11953,16 +11952,16 @@
         <v>36</v>
       </c>
       <c r="C204" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D204" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E204" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G204" s="37"/>
       <c r="H204" s="38"/>
@@ -11993,16 +11992,16 @@
         <v>36</v>
       </c>
       <c r="C205" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D205" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E205" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F205" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G205" s="37"/>
       <c r="H205" s="38"/>
@@ -12033,16 +12032,16 @@
         <v>36</v>
       </c>
       <c r="C206" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D206" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E206" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F206" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G206" s="37"/>
       <c r="H206" s="38"/>
@@ -12073,16 +12072,16 @@
         <v>36</v>
       </c>
       <c r="C207" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D207" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E207" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F207" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G207" s="37"/>
       <c r="H207" s="38"/>
@@ -12113,16 +12112,16 @@
         <v>36</v>
       </c>
       <c r="C208" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D208" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E208" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F208" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G208" s="37"/>
       <c r="H208" s="38"/>
@@ -12153,16 +12152,16 @@
         <v>36</v>
       </c>
       <c r="C209" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D209" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E209" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F209" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G209" s="37"/>
       <c r="H209" s="38"/>
@@ -12193,16 +12192,16 @@
         <v>36</v>
       </c>
       <c r="C210" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F210" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G210" s="40"/>
       <c r="H210" s="38"/>
@@ -12233,16 +12232,16 @@
         <v>36</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D211" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E211" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F211" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G211" s="37"/>
       <c r="H211" s="38"/>
@@ -12273,16 +12272,16 @@
         <v>36</v>
       </c>
       <c r="C212" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D212" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E212" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F212" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G212" s="37"/>
       <c r="H212" s="38"/>
@@ -12313,16 +12312,16 @@
         <v>36</v>
       </c>
       <c r="C213" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D213" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E213" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F213" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G213" s="37"/>
       <c r="H213" s="38"/>
@@ -12353,16 +12352,16 @@
         <v>36</v>
       </c>
       <c r="C214" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D214" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E214" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F214" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G214" s="37"/>
       <c r="H214" s="38"/>
@@ -12393,16 +12392,16 @@
         <v>36</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D215" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E215" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F215" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G215" s="37"/>
       <c r="H215" s="38"/>
@@ -12433,20 +12432,20 @@
         <v>39</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D216" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E216" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F216" s="36"/>
       <c r="G216" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H216" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
@@ -12475,17 +12474,17 @@
         <v>39</v>
       </c>
       <c r="C217" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D217" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E217" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F217" s="36"/>
       <c r="G217" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H217" s="38"/>
       <c r="I217" s="5"/>
@@ -12515,17 +12514,17 @@
         <v>39</v>
       </c>
       <c r="C218" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D218" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E218" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F218" s="36"/>
       <c r="G218" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H218" s="38"/>
       <c r="I218" s="5"/>
@@ -12555,17 +12554,17 @@
         <v>39</v>
       </c>
       <c r="C219" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D219" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E219" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F219" s="36"/>
       <c r="G219" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H219" s="38"/>
       <c r="I219" s="5"/>
@@ -12592,16 +12591,16 @@
         <v>16304</v>
       </c>
       <c r="B220" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C220" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="C220" s="43" t="s">
-        <v>347</v>
-      </c>
       <c r="D220" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E220" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F220" s="36"/>
       <c r="G220" s="37" t="n">
@@ -12632,16 +12631,16 @@
         <v>16305</v>
       </c>
       <c r="B221" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D221" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E221" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F221" s="36"/>
       <c r="G221" s="37" t="n">
@@ -12675,22 +12674,22 @@
         <v>61</v>
       </c>
       <c r="C222" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D222" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E222" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F222" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G222" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H222" s="38" t="s">
         <v>349</v>
-      </c>
-      <c r="D222" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E222" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F222" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G222" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H222" s="38" t="s">
-        <v>350</v>
       </c>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
@@ -12716,16 +12715,16 @@
         <v>16307</v>
       </c>
       <c r="B223" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D223" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E223" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F223" s="36"/>
       <c r="G223" s="37" t="n">
@@ -12756,23 +12755,23 @@
         <v>16308</v>
       </c>
       <c r="B224" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C224" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="C224" s="36" t="s">
+      <c r="D224" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E224" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F224" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="D224" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E224" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F224" s="37" t="s">
-        <v>354</v>
       </c>
       <c r="G224" s="37"/>
       <c r="H224" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
@@ -12798,23 +12797,23 @@
         <v>16309</v>
       </c>
       <c r="B225" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C225" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D225" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E225" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F225" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G225" s="37"/>
       <c r="H225" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
@@ -12840,23 +12839,23 @@
         <v>16310</v>
       </c>
       <c r="B226" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C226" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D226" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E226" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F226" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G226" s="37"/>
       <c r="H226" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
@@ -12882,23 +12881,23 @@
         <v>16311</v>
       </c>
       <c r="B227" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C227" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D227" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E227" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F227" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G227" s="37"/>
       <c r="H227" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
@@ -12924,22 +12923,22 @@
         <v>16312</v>
       </c>
       <c r="B228" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C228" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D228" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E228" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F228" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G228" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H228" s="38" t="s">
         <v>66</v>
@@ -12968,22 +12967,22 @@
         <v>16313</v>
       </c>
       <c r="B229" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C229" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D229" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E229" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F229" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G229" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H229" s="38" t="s">
         <v>66</v>
@@ -13012,23 +13011,23 @@
         <v>16315</v>
       </c>
       <c r="B230" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C230" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="C230" s="43" t="s">
+      <c r="D230" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E230" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F230" s="37" t="s">
         <v>362</v>
-      </c>
-      <c r="D230" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E230" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F230" s="37" t="s">
-        <v>363</v>
       </c>
       <c r="G230" s="37"/>
       <c r="H230" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
@@ -13054,23 +13053,23 @@
         <v>16316</v>
       </c>
       <c r="B231" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D231" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E231" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F231" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G231" s="37"/>
       <c r="H231" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
@@ -13096,16 +13095,16 @@
         <v>16317</v>
       </c>
       <c r="B232" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C232" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D232" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E232" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F232" s="36"/>
       <c r="G232" s="37" t="n">
@@ -13136,23 +13135,23 @@
         <v>16318</v>
       </c>
       <c r="B233" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C233" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="C233" s="43" t="s">
-        <v>368</v>
-      </c>
       <c r="D233" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E233" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F233" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G233" s="37"/>
       <c r="H233" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
@@ -13178,23 +13177,23 @@
         <v>16319</v>
       </c>
       <c r="B234" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D234" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E234" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F234" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G234" s="37"/>
       <c r="H234" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
@@ -13220,23 +13219,23 @@
         <v>16320</v>
       </c>
       <c r="B235" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D235" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E235" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F235" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G235" s="37"/>
       <c r="H235" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
@@ -13262,23 +13261,23 @@
         <v>16321</v>
       </c>
       <c r="B236" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D236" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E236" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F236" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G236" s="37"/>
       <c r="H236" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
@@ -13304,21 +13303,21 @@
         <v>16324</v>
       </c>
       <c r="B237" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C237" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="C237" s="43" t="s">
-        <v>373</v>
-      </c>
       <c r="D237" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E237" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F237" s="34"/>
       <c r="G237" s="40"/>
       <c r="H237" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
@@ -13344,25 +13343,25 @@
         <v>16325</v>
       </c>
       <c r="B238" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C238" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E238" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F238" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G238" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H238" s="38" t="s">
         <v>375</v>
-      </c>
-      <c r="D238" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E238" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F238" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G238" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H238" s="38" t="s">
-        <v>376</v>
       </c>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
@@ -13388,25 +13387,25 @@
         <v>16326</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D239" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E239" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F239" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G239" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H239" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
@@ -13432,25 +13431,25 @@
         <v>16327</v>
       </c>
       <c r="B240" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C240" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D240" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E240" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F240" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G240" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H240" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
@@ -13476,25 +13475,25 @@
         <v>16328</v>
       </c>
       <c r="B241" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C241" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D241" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E241" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F241" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G241" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H241" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
@@ -13520,25 +13519,25 @@
         <v>16329</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C242" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D242" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E242" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F242" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G242" s="37" t="s">
         <v>42</v>
       </c>
       <c r="H242" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
@@ -13564,25 +13563,25 @@
         <v>16330</v>
       </c>
       <c r="B243" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C243" s="36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D243" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E243" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F243" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G243" s="37" t="s">
         <v>42</v>
       </c>
       <c r="H243" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
@@ -13608,25 +13607,25 @@
         <v>16331</v>
       </c>
       <c r="B244" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C244" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D244" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E244" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F244" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G244" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H244" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
@@ -13652,25 +13651,25 @@
         <v>16332</v>
       </c>
       <c r="B245" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C245" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D245" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E245" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F245" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G245" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H245" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
@@ -13696,25 +13695,25 @@
         <v>16333</v>
       </c>
       <c r="B246" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C246" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D246" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E246" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F246" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G246" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H246" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
@@ -13740,25 +13739,25 @@
         <v>16334</v>
       </c>
       <c r="B247" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C247" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D247" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E247" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F247" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G247" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H247" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
@@ -13784,25 +13783,25 @@
         <v>16335</v>
       </c>
       <c r="B248" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C248" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D248" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E248" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F248" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G248" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H248" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
@@ -13831,13 +13830,13 @@
         <v>18</v>
       </c>
       <c r="C249" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D249" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="D249" s="37" t="s">
-        <v>388</v>
-      </c>
       <c r="E249" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F249" s="37"/>
       <c r="G249" s="37" t="n">
@@ -13870,23 +13869,23 @@
         <v>16337</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D250" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E250" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F250" s="37"/>
       <c r="G250" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H250" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
@@ -13912,20 +13911,20 @@
         <v>16338</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C251" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D251" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E251" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F251" s="37"/>
       <c r="G251" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H251" s="36"/>
       <c r="I251" s="5"/>
@@ -13952,20 +13951,20 @@
         <v>16339</v>
       </c>
       <c r="B252" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C252" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D252" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E252" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F252" s="37"/>
       <c r="G252" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H252" s="36"/>
       <c r="I252" s="5"/>
@@ -13992,20 +13991,20 @@
         <v>16340</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C253" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D253" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E253" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F253" s="37"/>
       <c r="G253" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H253" s="36"/>
       <c r="I253" s="5"/>
@@ -14035,16 +14034,16 @@
         <v>36</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D254" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E254" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F254" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G254" s="37"/>
       <c r="H254" s="38"/>
@@ -14075,16 +14074,16 @@
         <v>36</v>
       </c>
       <c r="C255" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D255" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E255" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F255" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G255" s="37"/>
       <c r="H255" s="38"/>
@@ -14115,16 +14114,16 @@
         <v>36</v>
       </c>
       <c r="C256" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D256" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E256" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F256" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G256" s="37"/>
       <c r="H256" s="38"/>
@@ -14155,16 +14154,16 @@
         <v>36</v>
       </c>
       <c r="C257" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D257" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E257" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F257" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G257" s="37"/>
       <c r="H257" s="38"/>
@@ -14195,16 +14194,16 @@
         <v>36</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D258" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E258" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F258" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G258" s="37"/>
       <c r="H258" s="38"/>
@@ -14235,20 +14234,20 @@
         <v>36</v>
       </c>
       <c r="C259" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D259" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E259" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F259" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G259" s="37"/>
       <c r="H259" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -14277,16 +14276,16 @@
         <v>36</v>
       </c>
       <c r="C260" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D260" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E260" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F260" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G260" s="37"/>
       <c r="H260" s="38"/>
@@ -14317,16 +14316,16 @@
         <v>36</v>
       </c>
       <c r="C261" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D261" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E261" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F261" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G261" s="37"/>
       <c r="H261" s="38"/>
@@ -14357,16 +14356,16 @@
         <v>36</v>
       </c>
       <c r="C262" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D262" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E262" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F262" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G262" s="37"/>
       <c r="H262" s="38"/>
@@ -14397,16 +14396,16 @@
         <v>36</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D263" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E263" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F263" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
@@ -14437,18 +14436,18 @@
         <v>36</v>
       </c>
       <c r="C264" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D264" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E264" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F264" s="36"/>
       <c r="G264" s="37"/>
       <c r="H264" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
@@ -14477,16 +14476,16 @@
         <v>36</v>
       </c>
       <c r="C265" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D265" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E265" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F265" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
@@ -14517,16 +14516,16 @@
         <v>36</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D266" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E266" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F266" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G266" s="37"/>
       <c r="H266" s="38"/>
@@ -14557,16 +14556,16 @@
         <v>36</v>
       </c>
       <c r="C267" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D267" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E267" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F267" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G267" s="37"/>
       <c r="H267" s="38"/>
@@ -14597,20 +14596,20 @@
         <v>45</v>
       </c>
       <c r="C268" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D268" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E268" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F268" s="36"/>
       <c r="G268" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H268" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
@@ -14639,13 +14638,13 @@
         <v>45</v>
       </c>
       <c r="C269" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D269" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E269" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F269" s="37" t="s">
         <v>65</v>
@@ -14654,7 +14653,7 @@
         <v>11</v>
       </c>
       <c r="H269" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
@@ -14683,20 +14682,20 @@
         <v>45</v>
       </c>
       <c r="C270" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D270" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E270" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F270" s="36"/>
       <c r="G270" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H270" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
@@ -14725,20 +14724,20 @@
         <v>45</v>
       </c>
       <c r="C271" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D271" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E271" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F271" s="36"/>
       <c r="G271" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H271" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
@@ -14764,16 +14763,16 @@
         <v>16359</v>
       </c>
       <c r="B272" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C272" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="C272" s="43" t="s">
-        <v>416</v>
-      </c>
       <c r="D272" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E272" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F272" s="36"/>
       <c r="G272" s="37" t="n">
@@ -14806,16 +14805,16 @@
         <v>16360</v>
       </c>
       <c r="B273" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D273" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E273" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F273" s="36"/>
       <c r="G273" s="37" t="n">
@@ -14848,16 +14847,16 @@
         <v>16361</v>
       </c>
       <c r="B274" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C274" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D274" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E274" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F274" s="36"/>
       <c r="G274" s="37" t="n">
@@ -14890,20 +14889,20 @@
         <v>16362</v>
       </c>
       <c r="B275" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="C275" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="C275" s="43" t="s">
-        <v>420</v>
-      </c>
       <c r="D275" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E275" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F275" s="36"/>
       <c r="G275" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H275" s="38" t="s">
         <v>51</v>
@@ -14932,23 +14931,23 @@
         <v>16363</v>
       </c>
       <c r="B276" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D276" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E276" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F276" s="36"/>
       <c r="G276" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H276" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
@@ -14974,16 +14973,16 @@
         <v>16364</v>
       </c>
       <c r="B277" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D277" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E277" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F277" s="36"/>
       <c r="G277" s="37" t="n">
@@ -15014,16 +15013,16 @@
         <v>16365</v>
       </c>
       <c r="B278" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D278" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E278" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F278" s="36"/>
       <c r="G278" s="37" t="n">
@@ -15054,16 +15053,16 @@
         <v>16366</v>
       </c>
       <c r="B279" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C279" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D279" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E279" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F279" s="36"/>
       <c r="G279" s="37" t="s">
@@ -15096,23 +15095,23 @@
         <v>16367</v>
       </c>
       <c r="B280" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="C280" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="C280" s="43" t="s">
-        <v>427</v>
-      </c>
       <c r="D280" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E280" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F280" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G280" s="37"/>
       <c r="H280" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
@@ -15138,23 +15137,23 @@
         <v>16368</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C281" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D281" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E281" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F281" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G281" s="37"/>
       <c r="H281" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
@@ -15180,23 +15179,23 @@
         <v>16369</v>
       </c>
       <c r="B282" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C282" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D282" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E282" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F282" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G282" s="37"/>
       <c r="H282" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
@@ -15222,23 +15221,23 @@
         <v>16370</v>
       </c>
       <c r="B283" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C283" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D283" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E283" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F283" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G283" s="37"/>
       <c r="H283" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
@@ -15264,23 +15263,23 @@
         <v>16371</v>
       </c>
       <c r="B284" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C284" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D284" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E284" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F284" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G284" s="37"/>
       <c r="H284" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
@@ -15306,23 +15305,23 @@
         <v>16372</v>
       </c>
       <c r="B285" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C285" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D285" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E285" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F285" s="36"/>
       <c r="G285" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H285" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
@@ -15348,20 +15347,20 @@
         <v>16373</v>
       </c>
       <c r="B286" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C286" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D286" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E286" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F286" s="36"/>
       <c r="G286" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H286" s="38"/>
       <c r="I286" s="5"/>
@@ -15388,20 +15387,20 @@
         <v>16374</v>
       </c>
       <c r="B287" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C287" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D287" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E287" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F287" s="36"/>
       <c r="G287" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H287" s="38"/>
       <c r="I287" s="5"/>
@@ -15431,20 +15430,20 @@
         <v>73</v>
       </c>
       <c r="C288" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D288" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E288" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F288" s="36"/>
       <c r="G288" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H288" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
@@ -15473,20 +15472,20 @@
         <v>73</v>
       </c>
       <c r="C289" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D289" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E289" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F289" s="36"/>
       <c r="G289" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H289" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
@@ -15515,20 +15514,20 @@
         <v>73</v>
       </c>
       <c r="C290" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D290" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E290" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F290" s="36"/>
       <c r="G290" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H290" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
@@ -15557,20 +15556,20 @@
         <v>73</v>
       </c>
       <c r="C291" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D291" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E291" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F291" s="36"/>
       <c r="G291" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H291" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
@@ -15599,20 +15598,20 @@
         <v>73</v>
       </c>
       <c r="C292" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D292" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E292" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F292" s="36"/>
       <c r="G292" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H292" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
@@ -15641,20 +15640,20 @@
         <v>73</v>
       </c>
       <c r="C293" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D293" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E293" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F293" s="36"/>
       <c r="G293" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H293" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
@@ -15683,20 +15682,20 @@
         <v>73</v>
       </c>
       <c r="C294" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D294" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E294" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F294" s="36"/>
       <c r="G294" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H294" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
@@ -15725,20 +15724,20 @@
         <v>73</v>
       </c>
       <c r="C295" s="36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D295" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E295" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F295" s="36"/>
       <c r="G295" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H295" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
@@ -15767,20 +15766,20 @@
         <v>73</v>
       </c>
       <c r="C296" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D296" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E296" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F296" s="36"/>
       <c r="G296" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H296" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
@@ -15809,20 +15808,20 @@
         <v>73</v>
       </c>
       <c r="C297" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D297" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E297" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F297" s="36"/>
       <c r="G297" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H297" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
@@ -15851,20 +15850,20 @@
         <v>73</v>
       </c>
       <c r="C298" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D298" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E298" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F298" s="36"/>
       <c r="G298" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H298" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
@@ -15893,20 +15892,20 @@
         <v>73</v>
       </c>
       <c r="C299" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E299" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F299" s="36"/>
       <c r="G299" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H299" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
@@ -15932,23 +15931,23 @@
         <v>16387</v>
       </c>
       <c r="B300" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C300" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="C300" s="43" t="s">
+      <c r="D300" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="D300" s="37" t="s">
-        <v>451</v>
-      </c>
       <c r="E300" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F300" s="36"/>
       <c r="G300" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H300" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
@@ -15974,23 +15973,23 @@
         <v>16388</v>
       </c>
       <c r="B301" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C301" s="43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E301" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F301" s="36"/>
       <c r="G301" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H301" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
@@ -16016,23 +16015,23 @@
         <v>16389</v>
       </c>
       <c r="B302" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E302" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F302" s="36"/>
       <c r="G302" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H302" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
@@ -16058,23 +16057,23 @@
         <v>16390</v>
       </c>
       <c r="B303" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C303" s="43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E303" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F303" s="36"/>
       <c r="G303" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H303" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
@@ -16100,23 +16099,23 @@
         <v>16391</v>
       </c>
       <c r="B304" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C304" s="43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D304" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E304" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F304" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G304" s="37"/>
       <c r="H304" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
@@ -16142,23 +16141,23 @@
         <v>16392</v>
       </c>
       <c r="B305" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C305" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D305" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E305" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F305" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G305" s="37"/>
       <c r="H305" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
@@ -16187,20 +16186,20 @@
         <v>61</v>
       </c>
       <c r="C306" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D306" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E306" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F306" s="37" t="s">
         <v>65</v>
       </c>
       <c r="G306" s="37"/>
       <c r="H306" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
@@ -16229,20 +16228,20 @@
         <v>61</v>
       </c>
       <c r="C307" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D307" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E307" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F307" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G307" s="40"/>
       <c r="H307" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
@@ -16271,20 +16270,20 @@
         <v>45</v>
       </c>
       <c r="C308" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D308" s="34"/>
       <c r="E308" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F308" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G308" s="40" t="n">
         <v>11</v>
       </c>
       <c r="H308" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
@@ -16313,20 +16312,20 @@
         <v>45</v>
       </c>
       <c r="C309" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D309" s="34"/>
       <c r="E309" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F309" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G309" s="40" t="n">
         <v>10</v>
       </c>
       <c r="H309" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
@@ -16355,20 +16354,20 @@
         <v>45</v>
       </c>
       <c r="C310" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D310" s="36"/>
       <c r="E310" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F310" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G310" s="37" t="n">
         <v>10</v>
       </c>
       <c r="H310" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
@@ -16397,20 +16396,20 @@
         <v>45</v>
       </c>
       <c r="C311" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D311" s="36"/>
       <c r="E311" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F311" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G311" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H311" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
@@ -16439,20 +16438,20 @@
         <v>45</v>
       </c>
       <c r="C312" s="36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D312" s="36"/>
       <c r="E312" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F312" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G312" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H312" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
@@ -16478,23 +16477,23 @@
         <v>16806</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C313" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D313" s="36"/>
       <c r="E313" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F313" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G313" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H313" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
@@ -16520,23 +16519,23 @@
         <v>16807</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D314" s="36"/>
       <c r="E314" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F314" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G314" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H314" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
@@ -16565,20 +16564,20 @@
         <v>52</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D315" s="36"/>
       <c r="E315" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F315" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G315" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H315" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
@@ -16604,23 +16603,23 @@
         <v>16813</v>
       </c>
       <c r="B316" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="C316" s="36" t="s">
         <v>475</v>
-      </c>
-      <c r="C316" s="36" t="s">
-        <v>476</v>
       </c>
       <c r="D316" s="36"/>
       <c r="E316" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F316" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G316" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H316" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
@@ -16646,23 +16645,23 @@
         <v>16814</v>
       </c>
       <c r="B317" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="C317" s="36" t="s">
         <v>478</v>
-      </c>
-      <c r="C317" s="36" t="s">
-        <v>479</v>
       </c>
       <c r="D317" s="36"/>
       <c r="E317" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F317" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G317" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H317" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
@@ -16688,23 +16687,23 @@
         <v>16815</v>
       </c>
       <c r="B318" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C318" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D318" s="36"/>
       <c r="E318" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F318" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G318" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H318" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
@@ -16730,23 +16729,23 @@
         <v>16816</v>
       </c>
       <c r="B319" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D319" s="36"/>
       <c r="E319" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F319" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G319" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H319" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
@@ -16772,23 +16771,23 @@
         <v>16817</v>
       </c>
       <c r="B320" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D320" s="36"/>
       <c r="E320" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F320" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G320" s="37" t="n">
         <v>11</v>
       </c>
       <c r="H320" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
@@ -16817,20 +16816,20 @@
         <v>67</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D321" s="36"/>
       <c r="E321" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F321" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G321" s="37" t="n">
         <v>9</v>
       </c>
       <c r="H321" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
@@ -16859,20 +16858,20 @@
         <v>67</v>
       </c>
       <c r="C322" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D322" s="34"/>
       <c r="E322" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F322" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G322" s="40" t="n">
         <v>9</v>
       </c>
       <c r="H322" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
@@ -16901,20 +16900,20 @@
         <v>67</v>
       </c>
       <c r="C323" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D323" s="34"/>
       <c r="E323" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F323" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G323" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H323" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
@@ -16943,20 +16942,20 @@
         <v>67</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D324" s="34"/>
       <c r="E324" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F324" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G324" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H324" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
@@ -16985,20 +16984,20 @@
         <v>67</v>
       </c>
       <c r="C325" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D325" s="36"/>
       <c r="E325" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F325" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G325" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H325" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
@@ -17024,23 +17023,23 @@
         <v>16824</v>
       </c>
       <c r="B326" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C326" s="36" t="s">
         <v>494</v>
-      </c>
-      <c r="C326" s="36" t="s">
-        <v>495</v>
       </c>
       <c r="D326" s="36"/>
       <c r="E326" s="28" t="s">
         <v>41</v>
       </c>
       <c r="F326" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G326" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H326" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I326" s="5"/>
       <c r="J326" s="5"/>
@@ -17066,23 +17065,23 @@
         <v>16826</v>
       </c>
       <c r="B327" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="C327" s="36" t="s">
         <v>496</v>
-      </c>
-      <c r="C327" s="36" t="s">
-        <v>497</v>
       </c>
       <c r="D327" s="36"/>
       <c r="E327" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F327" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G327" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H327" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I327" s="5"/>
       <c r="J327" s="5"/>
@@ -17108,23 +17107,23 @@
         <v>16828</v>
       </c>
       <c r="B328" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="C328" s="36" t="s">
         <v>499</v>
-      </c>
-      <c r="C328" s="36" t="s">
-        <v>500</v>
       </c>
       <c r="D328" s="36"/>
       <c r="E328" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F328" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G328" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H328" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I328" s="5"/>
       <c r="J328" s="5"/>
@@ -17150,23 +17149,23 @@
         <v>16829</v>
       </c>
       <c r="B329" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C329" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D329" s="36"/>
       <c r="E329" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F329" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G329" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H329" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I329" s="5"/>
       <c r="J329" s="5"/>
@@ -17192,23 +17191,23 @@
         <v>16833</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D330" s="34"/>
       <c r="E330" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F330" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G330" s="40" t="n">
         <v>5</v>
       </c>
       <c r="H330" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I330" s="5"/>
       <c r="J330" s="5"/>
@@ -17234,23 +17233,23 @@
         <v>16834</v>
       </c>
       <c r="B331" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C331" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D331" s="36"/>
       <c r="E331" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F331" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G331" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H331" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I331" s="5"/>
       <c r="J331" s="5"/>
@@ -17276,23 +17275,23 @@
         <v>16835</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D332" s="34"/>
       <c r="E332" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F332" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G332" s="40" t="n">
         <v>5</v>
       </c>
       <c r="H332" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I332" s="5"/>
       <c r="J332" s="5"/>
@@ -17318,23 +17317,23 @@
         <v>16836</v>
       </c>
       <c r="B333" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C333" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D333" s="36"/>
       <c r="E333" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F333" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G333" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H333" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I333" s="5"/>
       <c r="J333" s="5"/>
@@ -17360,23 +17359,23 @@
         <v>16838</v>
       </c>
       <c r="B334" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="C334" s="34" t="s">
         <v>511</v>
-      </c>
-      <c r="C334" s="34" t="s">
-        <v>512</v>
       </c>
       <c r="D334" s="34"/>
       <c r="E334" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F334" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G334" s="40" t="n">
         <v>6</v>
       </c>
       <c r="H334" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I334" s="5"/>
       <c r="J334" s="5"/>
@@ -17402,23 +17401,23 @@
         <v>16839</v>
       </c>
       <c r="B335" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C335" s="34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D335" s="34"/>
       <c r="E335" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F335" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G335" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H335" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I335" s="5"/>
       <c r="J335" s="5"/>
@@ -17444,23 +17443,23 @@
         <v>16840</v>
       </c>
       <c r="B336" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="C336" s="50" t="s">
         <v>515</v>
-      </c>
-      <c r="C336" s="50" t="s">
-        <v>516</v>
       </c>
       <c r="D336" s="34"/>
       <c r="E336" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F336" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G336" s="40" t="n">
         <v>9</v>
       </c>
       <c r="H336" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I336" s="5"/>
       <c r="J336" s="5"/>
@@ -17486,23 +17485,23 @@
         <v>16841</v>
       </c>
       <c r="B337" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C337" s="34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D337" s="34"/>
       <c r="E337" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F337" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G337" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H337" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I337" s="5"/>
       <c r="J337" s="5"/>
@@ -17528,23 +17527,23 @@
         <v>16842</v>
       </c>
       <c r="B338" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C338" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D338" s="36"/>
       <c r="E338" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F338" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G338" s="37" t="s">
         <v>42</v>
       </c>
       <c r="H338" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I338" s="5"/>
       <c r="J338" s="5"/>
@@ -17570,23 +17569,23 @@
         <v>16860</v>
       </c>
       <c r="B339" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="C339" s="36" t="s">
         <v>519</v>
-      </c>
-      <c r="C339" s="36" t="s">
-        <v>520</v>
       </c>
       <c r="D339" s="36"/>
       <c r="E339" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F339" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G339" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H339" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I339" s="5"/>
       <c r="J339" s="5"/>
@@ -17612,23 +17611,23 @@
         <v>16861</v>
       </c>
       <c r="B340" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="C340" s="43" t="s">
         <v>522</v>
-      </c>
-      <c r="C340" s="43" t="s">
-        <v>523</v>
       </c>
       <c r="D340" s="37"/>
       <c r="E340" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F340" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G340" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H340" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I340" s="5"/>
       <c r="J340" s="5"/>
@@ -17654,23 +17653,23 @@
         <v>16862</v>
       </c>
       <c r="B341" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C341" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D341" s="37"/>
       <c r="E341" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F341" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G341" s="37" t="n">
         <v>9</v>
       </c>
       <c r="H341" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I341" s="5"/>
       <c r="J341" s="5"/>
@@ -17696,23 +17695,23 @@
         <v>16863</v>
       </c>
       <c r="B342" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C342" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D342" s="40"/>
       <c r="E342" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F342" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G342" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H342" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I342" s="5"/>
       <c r="J342" s="5"/>
@@ -17741,20 +17740,20 @@
         <v>67</v>
       </c>
       <c r="C343" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D343" s="36"/>
       <c r="E343" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F343" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G343" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H343" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I343" s="5"/>
       <c r="J343" s="5"/>
@@ -17780,23 +17779,23 @@
         <v>16866</v>
       </c>
       <c r="B344" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="C344" s="36" t="s">
         <v>530</v>
-      </c>
-      <c r="C344" s="36" t="s">
-        <v>531</v>
       </c>
       <c r="D344" s="36"/>
       <c r="E344" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F344" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G344" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H344" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I344" s="5"/>
       <c r="J344" s="5"/>
@@ -17822,23 +17821,23 @@
         <v>16867</v>
       </c>
       <c r="B345" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="C345" s="36" t="s">
         <v>533</v>
-      </c>
-      <c r="C345" s="36" t="s">
-        <v>534</v>
       </c>
       <c r="D345" s="36"/>
       <c r="E345" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F345" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G345" s="37" t="s">
         <v>42</v>
       </c>
       <c r="H345" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I345" s="5"/>
       <c r="J345" s="5"/>
@@ -17864,23 +17863,23 @@
         <v>16868</v>
       </c>
       <c r="B346" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C346" s="36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D346" s="36"/>
       <c r="E346" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F346" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G346" s="37" t="s">
         <v>42</v>
       </c>
       <c r="H346" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I346" s="5"/>
       <c r="J346" s="5"/>
@@ -17906,21 +17905,21 @@
         <v>16869</v>
       </c>
       <c r="B347" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="C347" s="36" t="s">
         <v>536</v>
-      </c>
-      <c r="C347" s="36" t="s">
-        <v>537</v>
       </c>
       <c r="D347" s="36"/>
       <c r="E347" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F347" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G347" s="37"/>
       <c r="H347" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I347" s="5"/>
       <c r="J347" s="5"/>
@@ -17946,23 +17945,23 @@
         <v>16870</v>
       </c>
       <c r="B348" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C348" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D348" s="34"/>
       <c r="E348" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F348" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G348" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H348" s="36" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I348" s="5"/>
       <c r="J348" s="5"/>
@@ -17988,23 +17987,23 @@
         <v>16871</v>
       </c>
       <c r="B349" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="C349" s="36" t="s">
         <v>541</v>
-      </c>
-      <c r="C349" s="36" t="s">
-        <v>542</v>
       </c>
       <c r="D349" s="36"/>
       <c r="E349" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F349" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G349" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H349" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I349" s="5"/>
       <c r="J349" s="5"/>
@@ -18030,23 +18029,23 @@
         <v>16872</v>
       </c>
       <c r="B350" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C350" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D350" s="36"/>
       <c r="E350" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F350" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G350" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H350" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I350" s="5"/>
       <c r="J350" s="5"/>
@@ -18075,20 +18074,20 @@
         <v>67</v>
       </c>
       <c r="C351" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D351" s="36"/>
       <c r="E351" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F351" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G351" s="37" t="n">
         <v>9</v>
       </c>
       <c r="H351" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I351" s="5"/>
       <c r="J351" s="5"/>
@@ -18114,23 +18113,23 @@
         <v>16874</v>
       </c>
       <c r="B352" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C352" s="36" t="s">
         <v>548</v>
-      </c>
-      <c r="C352" s="36" t="s">
-        <v>549</v>
       </c>
       <c r="D352" s="36"/>
       <c r="E352" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F352" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G352" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H352" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I352" s="5"/>
       <c r="J352" s="5"/>
@@ -18156,23 +18155,23 @@
         <v>16875</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C353" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D353" s="34"/>
       <c r="E353" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F353" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G353" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H353" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I353" s="5"/>
       <c r="J353" s="5"/>
@@ -18198,23 +18197,23 @@
         <v>16876</v>
       </c>
       <c r="B354" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C354" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D354" s="36"/>
       <c r="E354" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F354" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G354" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H354" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I354" s="5"/>
       <c r="J354" s="5"/>
@@ -18240,23 +18239,23 @@
         <v>16877</v>
       </c>
       <c r="B355" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C355" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D355" s="36"/>
       <c r="E355" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F355" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G355" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H355" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
@@ -18282,23 +18281,23 @@
         <v>16878</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C356" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D356" s="34"/>
       <c r="E356" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F356" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G356" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H356" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I356" s="5"/>
       <c r="J356" s="5"/>
@@ -18324,23 +18323,23 @@
         <v>16879</v>
       </c>
       <c r="B357" s="54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C357" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D357" s="54"/>
       <c r="E357" s="56" t="s">
         <v>16</v>
       </c>
       <c r="F357" s="59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G357" s="59" t="n">
         <v>5</v>
       </c>
       <c r="H357" s="58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I357" s="5"/>
       <c r="J357" s="5"/>
@@ -18366,23 +18365,23 @@
         <v>16880</v>
       </c>
       <c r="B358" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C358" s="36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D358" s="36"/>
       <c r="E358" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F358" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G358" s="37" t="n">
         <v>5</v>
       </c>
       <c r="H358" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I358" s="5"/>
       <c r="J358" s="5"/>
@@ -18408,23 +18407,23 @@
         <v>16881</v>
       </c>
       <c r="B359" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="C359" s="36" t="s">
         <v>558</v>
-      </c>
-      <c r="C359" s="36" t="s">
-        <v>559</v>
       </c>
       <c r="D359" s="36"/>
       <c r="E359" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F359" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G359" s="37" t="n">
         <v>13</v>
       </c>
       <c r="H359" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I359" s="5"/>
       <c r="J359" s="5"/>
@@ -18450,23 +18449,23 @@
         <v>16882</v>
       </c>
       <c r="B360" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C360" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D360" s="36"/>
       <c r="E360" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F360" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G360" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H360" s="36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I360" s="5"/>
       <c r="J360" s="5"/>
@@ -18492,23 +18491,23 @@
         <v>16883</v>
       </c>
       <c r="B361" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C361" s="36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D361" s="36"/>
       <c r="E361" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F361" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G361" s="37" t="n">
         <v>9</v>
       </c>
       <c r="H361" s="36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
@@ -18534,23 +18533,23 @@
         <v>16884</v>
       </c>
       <c r="B362" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C362" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D362" s="36"/>
       <c r="E362" s="37" t="s">
         <v>16</v>
       </c>
       <c r="F362" s="37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G362" s="37" t="n">
         <v>6</v>
       </c>
       <c r="H362" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
@@ -18576,15 +18575,15 @@
         <v>16885</v>
       </c>
       <c r="B363" s="62" t="s">
+        <v>563</v>
+      </c>
+      <c r="C363" s="63" t="s">
         <v>564</v>
-      </c>
-      <c r="C363" s="63" t="s">
-        <v>565</v>
       </c>
       <c r="D363" s="64"/>
       <c r="E363" s="64"/>
       <c r="F363" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G363" s="64" t="n">
         <v>13</v>
@@ -18614,10 +18613,10 @@
         <v>16886</v>
       </c>
       <c r="B364" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="C364" s="63" t="s">
         <v>567</v>
-      </c>
-      <c r="C364" s="63" t="s">
-        <v>568</v>
       </c>
       <c r="D364" s="64"/>
       <c r="E364" s="64"/>

--- a/server/src/main/resources/TestUpdateAccessionList2016.xlsx
+++ b/server/src/main/resources/TestUpdateAccessionList2016.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'2016 Accession List Steves '!$A$4:$H$362</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="568">
   <si>
     <t xml:space="preserve">2016 Accession List: Steve's Design</t>
   </si>
@@ -3556,24 +3557,24 @@
   <dimension ref="A1:Z454"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="G83" activeCellId="0" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.13917525773196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.639175257732"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2319587628866"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3659793814433"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.63917525773196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0463917525773"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9123711340206"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3659793814433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="73.7835051546392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="73.6494845360825"/>
     <col collapsed="false" hidden="false" max="18" min="9" style="0" width="9.13917525773196"/>
-    <col collapsed="false" hidden="false" max="26" min="19" style="0" width="7.77319587628866"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="26" min="19" style="0" width="7.63917525773196"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6935,9 +6936,6 @@
         <v>16</v>
       </c>
       <c r="F83" s="36"/>
-      <c r="G83" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="H83" s="38"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
